--- a/lista-spatii.xlsx
+++ b/lista-spatii.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27218"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EF1A535-4EA2-467C-B136-4C22C0523464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9B6366-E7F7-47BE-9AE5-6AB5CA911882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8437B748-7CDE-483C-A8E4-E7C2D20FF0BB}"/>
   </bookViews>
@@ -440,7 +440,7 @@
     <t>complex medeea</t>
   </si>
   <si>
-    <t>separate unele de celelalte</t>
+    <t>misc</t>
   </si>
   <si>
     <t>Albatros nr.4 BLAV 23</t>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FD8177-9D99-4577-BBB1-62DB021875D3}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:A50"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
